--- a/docs/bddad/us-bd04/Legacy_Data_v0_Scripts.xlsx
+++ b/docs/bddad/us-bd04/Legacy_Data_v0_Scripts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaog\OneDrive\Ambiente de Trabalho\segundo ano\primeiro semestre\Projeto Integrador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anaog\OneDrive\Ambiente de Trabalho\segundo ano\primeiro semestre\sem3pi2023_24_g073\docs\bddad\us-bd04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4786E870-02BF-48B9-BAAA-9220BD45A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E635690E-A78A-4472-8A2A-B81C693B6228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{ACBD79A1-D35B-4D3E-A78E-4F35CA726952}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="234">
   <si>
     <t>Prunus domestica</t>
   </si>
@@ -715,12 +715,6 @@
     <t>table_name</t>
   </si>
   <si>
-    <t>Script para sql, tendo as funções do excel para substituir por NULL, as celulas que não apresentem valor e formatar os valores das percentagens</t>
-  </si>
-  <si>
-    <t>Script para sql, de modo à percentagem ser modificada ao inserir os valores na tabela</t>
-  </si>
-  <si>
     <t>Edificio</t>
   </si>
   <si>
@@ -728,6 +722,27 @@
   </si>
   <si>
     <t>CulturaInstalada</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>CalendarioOperacao</t>
+  </si>
+  <si>
+    <t>FatorProducao</t>
+  </si>
+  <si>
+    <t>FALTA O FABRICANTE</t>
+  </si>
+  <si>
+    <t>ComponenteQuimico</t>
+  </si>
+  <si>
+    <t>TipoEdificio</t>
+  </si>
+  <si>
+    <t>OperacaoAgricola</t>
   </si>
 </sst>
 </file>
@@ -737,7 +752,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,13 +774,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -780,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -791,6 +849,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,10 +1172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA74F46-7FB7-481B-9DAE-CE325D568C4A}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,7 +1191,7 @@
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1149,8 +1216,30 @@
       <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1172,12 +1261,27 @@
       <c r="H2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="str">
-        <f>"INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('" &amp;C2&amp; "', '" &amp;B2&amp; "', 1, '" &amp;A2&amp; "');"</f>
+      <c r="J2" s="10" t="str">
+        <f>"INSERT INTO " &amp;$L$1&amp; "(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('" &amp;C2&amp; "', '" &amp;B2&amp; "', 1, '" &amp;A2&amp; "');"</f>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('RAINHA CLAUDIA CARANGUEJEIRA', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1199,12 +1303,27 @@
       <c r="H3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="0">"INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('" &amp;C3&amp; "', '" &amp;B3&amp; "', 1, '" &amp;A3&amp; "');"</f>
+      <c r="J3" s="10" t="str">
+        <f t="shared" ref="J3:J66" si="0">"INSERT INTO " &amp;$L$1&amp; "(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('" &amp;C3&amp; "', '" &amp;B3&amp; "', 1, '" &amp;A3&amp; "');"</f>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PRESIDENT', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1226,12 +1345,27 @@
       <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('STANLEY', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1253,12 +1387,27 @@
       <c r="H5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('ANGELENO', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1280,12 +1429,27 @@
       <c r="H6" t="s">
         <v>66</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BLACK BEAUTY', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1307,12 +1471,27 @@
       <c r="H7" t="s">
         <v>66</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BLACK STAR', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1334,12 +1513,27 @@
       <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BLACK GOLD', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1361,12 +1555,27 @@
       <c r="H9" t="s">
         <v>66</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BLACK DIAMOND', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1388,12 +1597,27 @@
       <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="J10" t="str">
+      <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BLACK AMBER', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1415,12 +1639,27 @@
       <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="str">
+      <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BLACK SPLENDOR', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1442,12 +1681,27 @@
       <c r="H12" t="s">
         <v>66</v>
       </c>
-      <c r="J12" t="str">
+      <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('FORTUNA', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1469,12 +1723,27 @@
       <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="str">
+      <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('FRIAR', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1496,12 +1765,27 @@
       <c r="H14" t="s">
         <v>66</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('EL DORADO', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1523,12 +1807,27 @@
       <c r="H15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('ELEPHANT HEART', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1550,12 +1849,27 @@
       <c r="H16" t="s">
         <v>66</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GOLDEN JAPAN', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1577,12 +1891,27 @@
       <c r="H17" t="s">
         <v>66</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('HARRY PITCHON', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1604,12 +1933,27 @@
       <c r="H18" t="s">
         <v>66</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('LAETITIA', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1631,12 +1975,27 @@
       <c r="H19" t="s">
         <v>66</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('METLEY', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1658,12 +2017,27 @@
       <c r="H20" t="s">
         <v>66</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('MIRABELLE DE NANCY', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1685,12 +2059,27 @@
       <c r="H21" t="s">
         <v>66</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('QUEEN ROSE', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1712,12 +2101,27 @@
       <c r="H22" t="s">
         <v>66</v>
       </c>
-      <c r="J22" t="str">
+      <c r="J22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('RED BEAUT', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1739,12 +2143,27 @@
       <c r="H23" t="s">
         <v>66</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('SANTA ROSA', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1766,12 +2185,27 @@
       <c r="H24" t="s">
         <v>66</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('SHIRO', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1793,12 +2227,27 @@
       <c r="H25" t="s">
         <v>66</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('SUNGOLD', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1820,12 +2269,27 @@
       <c r="H26" t="s">
         <v>66</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('WILSON PERFECTION', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1847,12 +2311,27 @@
       <c r="H27" t="s">
         <v>66</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('AUTUMN GIANT', 'Ameixoeira', 1, 'Prunus domestica');</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1874,12 +2353,27 @@
       <c r="H28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BULIDA', 'Damasqueiro', 1, 'Prunus armeniaca');</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -1901,12 +2395,27 @@
       <c r="H29" t="s">
         <v>66</v>
       </c>
-      <c r="J29" t="str">
+      <c r="J29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('CANINO', 'Damasqueiro', 1, 'Prunus armeniaca');</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1928,12 +2437,27 @@
       <c r="H30" t="s">
         <v>66</v>
       </c>
-      <c r="J30" t="str">
+      <c r="J30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('LIABAUD', 'Damasqueiro', 1, 'Prunus armeniaca');</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1955,12 +2479,27 @@
       <c r="H31" t="s">
         <v>66</v>
       </c>
-      <c r="J31" t="str">
+      <c r="J31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('MAILLOT JAUNE', 'Damasqueiro', 1, 'Prunus armeniaca');</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1982,12 +2521,27 @@
       <c r="H32" t="s">
         <v>66</v>
       </c>
-      <c r="J32" t="str">
+      <c r="J32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('POLONAIS', 'Damasqueiro', 1, 'Prunus armeniaca');</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2009,12 +2563,27 @@
       <c r="H33" t="s">
         <v>69</v>
       </c>
-      <c r="J33" t="str">
+      <c r="J33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('AKANE', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -2036,12 +2605,27 @@
       <c r="H34" t="s">
         <v>69</v>
       </c>
-      <c r="J34" t="str">
+      <c r="J34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BELGOLDEN', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -2063,12 +2647,27 @@
       <c r="H35" t="s">
         <v>69</v>
       </c>
-      <c r="J35" t="str">
+      <c r="J35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('BRAVO DE ESMOLFE', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -2090,12 +2689,27 @@
       <c r="H36" t="s">
         <v>69</v>
       </c>
-      <c r="J36" t="str">
+      <c r="J36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('CASA NOVA DE ALCOBAÇA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -2117,12 +2731,27 @@
       <c r="H37" t="s">
         <v>69</v>
       </c>
-      <c r="J37" t="str">
+      <c r="J37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('EROVAN', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -2144,12 +2773,27 @@
       <c r="H38" t="s">
         <v>69</v>
       </c>
-      <c r="J38" t="str">
+      <c r="J38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('FUJI', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -2171,12 +2815,27 @@
       <c r="H39" t="s">
         <v>69</v>
       </c>
-      <c r="J39" t="str">
+      <c r="J39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GRANNY SMITH', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2198,12 +2857,27 @@
       <c r="H40" t="s">
         <v>69</v>
       </c>
-      <c r="J40" t="str">
+      <c r="J40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GOLDEN DELICIOUS', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2225,12 +2899,27 @@
       <c r="H41" t="s">
         <v>69</v>
       </c>
-      <c r="J41" t="str">
+      <c r="J41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('HI-EARLY', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -2252,12 +2941,27 @@
       <c r="H42" t="s">
         <v>69</v>
       </c>
-      <c r="J42" t="str">
+      <c r="J42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('JONAGORED', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -2279,12 +2983,27 @@
       <c r="H43" t="s">
         <v>69</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('LYSGOLDEN', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -2306,12 +3025,27 @@
       <c r="H44" t="s">
         <v>69</v>
       </c>
-      <c r="J44" t="str">
+      <c r="J44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('MUTSU', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2333,12 +3067,27 @@
       <c r="H45" t="s">
         <v>65</v>
       </c>
-      <c r="J45" t="str">
+      <c r="J45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PORTA DA LOJA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -2360,12 +3109,27 @@
       <c r="H46" t="s">
         <v>69</v>
       </c>
-      <c r="J46" t="str">
+      <c r="J46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('REINETTE OU CANADA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -2387,12 +3151,27 @@
       <c r="H47" t="s">
         <v>69</v>
       </c>
-      <c r="J47" t="str">
+      <c r="J47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('REINETTE OU GRAND FAY', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -2414,12 +3193,27 @@
       <c r="H48" t="s">
         <v>69</v>
       </c>
-      <c r="J48" t="str">
+      <c r="J48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('RISCADINHA DE PALMELA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2441,12 +3235,27 @@
       <c r="H49" t="s">
         <v>69</v>
       </c>
-      <c r="J49" t="str">
+      <c r="J49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('ROYAL GALA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2468,12 +3277,27 @@
       <c r="H50" t="s">
         <v>69</v>
       </c>
-      <c r="J50" t="str">
+      <c r="J50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('REDCHIEF', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -2495,12 +3319,27 @@
       <c r="H51" t="s">
         <v>69</v>
       </c>
-      <c r="J51" t="str">
+      <c r="J51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('STARKING', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -2522,12 +3361,27 @@
       <c r="H52" t="s">
         <v>69</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('SUMMER RED', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2549,12 +3403,27 @@
       <c r="H53" t="s">
         <v>69</v>
       </c>
-      <c r="J53" t="str">
+      <c r="J53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('WELL'SPUR DELICIOUS', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -2576,12 +3445,27 @@
       <c r="H54" t="s">
         <v>69</v>
       </c>
-      <c r="J54" t="str">
+      <c r="J54" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('NOIVA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2603,12 +3487,27 @@
       <c r="H55" t="s">
         <v>69</v>
       </c>
-      <c r="J55" t="str">
+      <c r="J55" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('OLHO ABERTO', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -2630,12 +3529,27 @@
       <c r="H56" t="s">
         <v>69</v>
       </c>
-      <c r="J56" t="str">
+      <c r="J56" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('CAMOESA ROSA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -2657,12 +3571,27 @@
       <c r="H57" t="s">
         <v>69</v>
       </c>
-      <c r="J57" t="str">
+      <c r="J57" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('MALÁPIO', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -2684,12 +3613,27 @@
       <c r="H58" t="s">
         <v>69</v>
       </c>
-      <c r="J58" t="str">
+      <c r="J58" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GRONHO DOCE', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -2711,12 +3655,27 @@
       <c r="H59" t="s">
         <v>69</v>
       </c>
-      <c r="J59" t="str">
+      <c r="J59" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PÉ DE BOI ', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -2738,12 +3697,27 @@
       <c r="H60" t="s">
         <v>69</v>
       </c>
-      <c r="J60" t="str">
+      <c r="J60" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PINOVA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -2765,12 +3739,27 @@
       <c r="H61" t="s">
         <v>69</v>
       </c>
-      <c r="J61" t="str">
+      <c r="J61" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PARDO LINDO', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -2792,12 +3781,27 @@
       <c r="H62" t="s">
         <v>69</v>
       </c>
-      <c r="J62" t="str">
+      <c r="J62" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PIPO DE BASTO', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -2819,12 +3823,27 @@
       <c r="H63" t="s">
         <v>69</v>
       </c>
-      <c r="J63" t="str">
+      <c r="J63" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PRIMA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2846,12 +3865,27 @@
       <c r="H64" t="s">
         <v>69</v>
       </c>
-      <c r="J64" t="str">
+      <c r="J64" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('QUERINA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -2873,12 +3907,27 @@
       <c r="H65" t="s">
         <v>69</v>
       </c>
-      <c r="J65" t="str">
+      <c r="J65" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('VISTA BELLA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2900,12 +3949,27 @@
       <c r="H66" t="s">
         <v>69</v>
       </c>
-      <c r="J66" t="str">
+      <c r="J66" s="10" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GOLDEN SMOOTHEE', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -2927,12 +3991,27 @@
       <c r="H67" t="s">
         <v>69</v>
       </c>
-      <c r="J67" t="str">
-        <f t="shared" ref="J67:J93" si="1">"INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('" &amp;C67&amp; "', '" &amp;B67&amp; "', 1, '" &amp;A67&amp; "');"</f>
+      <c r="J67" s="10" t="str">
+        <f t="shared" ref="J67:J93" si="1">"INSERT INTO " &amp;$L$1&amp; "(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('" &amp;C67&amp; "', '" &amp;B67&amp; "', 1, '" &amp;A67&amp; "');"</f>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GOLDEN SUPREMA', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -2954,12 +4033,27 @@
       <c r="H68" t="s">
         <v>69</v>
       </c>
-      <c r="J68" t="str">
+      <c r="J68" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('GLOSTER 69', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2981,12 +4075,27 @@
       <c r="H69" t="s">
         <v>69</v>
       </c>
-      <c r="J69" t="str">
+      <c r="J69" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('FREEDOM', 'Macieira', 1, 'Malus domestica');</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2999,12 +4108,27 @@
       <c r="D70" t="s">
         <v>20</v>
       </c>
-      <c r="J70" t="str">
+      <c r="J70" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('SNINSEIKI', 'Pera Nashi', 1, 'Pyrus pyrifolia');</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -3017,12 +4141,27 @@
       <c r="D71" t="s">
         <v>20</v>
       </c>
-      <c r="J71" t="str">
+      <c r="J71" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('KUMOI', 'Pera Nashi', 1, 'Pyrus pyrifolia');</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -3035,12 +4174,27 @@
       <c r="D72" t="s">
         <v>20</v>
       </c>
-      <c r="J72" t="str">
+      <c r="J72" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('HOSUI', 'Pera Nashi', 1, 'Pyrus pyrifolia');</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -3053,12 +4207,27 @@
       <c r="D73" t="s">
         <v>20</v>
       </c>
-      <c r="J73" t="str">
+      <c r="J73" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('NIJISSEIKI', 'Pera Nashi', 1, 'Pyrus pyrifolia');</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3074,12 +4243,27 @@
       <c r="H74" t="s">
         <v>85</v>
       </c>
-      <c r="J74" t="str">
+      <c r="J74" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Carson Hybrid', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3095,12 +4279,27 @@
       <c r="H75" t="s">
         <v>85</v>
       </c>
-      <c r="J75" t="str">
+      <c r="J75" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Red Cored Chantenay', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3116,12 +4315,27 @@
       <c r="H76" t="s">
         <v>85</v>
       </c>
-      <c r="J76" t="str">
+      <c r="J76" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Danvers Half Long', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3137,12 +4351,27 @@
       <c r="H77" t="s">
         <v>85</v>
       </c>
-      <c r="J77" t="str">
+      <c r="J77" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Imperator 58', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3158,12 +4387,27 @@
       <c r="H78" t="s">
         <v>85</v>
       </c>
-      <c r="J78" t="str">
+      <c r="J78" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Sugarsnax Hybrid', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3179,12 +4423,27 @@
       <c r="H79" t="s">
         <v>85</v>
       </c>
-      <c r="J79" t="str">
+      <c r="J79" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Nelson Hybrid', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3200,12 +4459,27 @@
       <c r="H80" t="s">
         <v>85</v>
       </c>
-      <c r="J80" t="str">
+      <c r="J80" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Scarlet Nantes', 'Cenoura', 1, 'Daucus carota subsp. Sativus');</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -3218,12 +4492,27 @@
       <c r="D81" t="s">
         <v>21</v>
       </c>
-      <c r="J81" t="str">
+      <c r="J81" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Amarelo', 'Tremoço', 1, 'Lupinus luteus');</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>47</v>
       </c>
@@ -3236,12 +4525,27 @@
       <c r="D82" t="s">
         <v>21</v>
       </c>
-      <c r="J82" t="str">
+      <c r="J82" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Branco', 'Tremoço', 1, 'Lupinus albus');</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -3260,12 +4564,27 @@
       <c r="H83" t="s">
         <v>73</v>
       </c>
-      <c r="J83" t="str">
+      <c r="J83" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('MAS 24.C', 'Milho', 1, 'Zea mays');</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>58</v>
       </c>
@@ -3284,12 +4603,27 @@
       <c r="H84" t="s">
         <v>73</v>
       </c>
-      <c r="J84" t="str">
+      <c r="J84" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Doce Golden Bantam', 'Milho', 1, 'Zea mays');</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -3308,12 +4642,27 @@
       <c r="H85" t="s">
         <v>64</v>
       </c>
-      <c r="J85" t="str">
+      <c r="J85" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Senhora Conceição', 'Nabo greleiro', 1, 'Brassica rapa');</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>120</v>
       </c>
@@ -3329,12 +4678,27 @@
       <c r="H86" t="s">
         <v>221</v>
       </c>
-      <c r="J86" t="str">
+      <c r="J86" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('COBRANÇOSA', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
+      <c r="Y86" s="10"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -3350,12 +4714,27 @@
       <c r="H87" t="s">
         <v>221</v>
       </c>
-      <c r="J87" t="str">
+      <c r="J87" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('ARBEQUINA', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
+      <c r="Y87" s="10"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>120</v>
       </c>
@@ -3371,12 +4750,27 @@
       <c r="H88" t="s">
         <v>221</v>
       </c>
-      <c r="J88" t="str">
+      <c r="J88" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('HOJIBLANCA', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
+      <c r="Y88" s="10"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>120</v>
       </c>
@@ -3392,12 +4786,27 @@
       <c r="H89" t="s">
         <v>221</v>
       </c>
-      <c r="J89" t="str">
+      <c r="J89" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('NEGRINHA DO FREIXO', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -3413,12 +4822,27 @@
       <c r="H90" t="s">
         <v>221</v>
       </c>
-      <c r="J90" t="str">
+      <c r="J90" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('PICUAL', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -3434,12 +4858,27 @@
       <c r="H91" t="s">
         <v>221</v>
       </c>
-      <c r="J91" t="str">
+      <c r="J91" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('MAÇANILHA', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>120</v>
       </c>
@@ -3455,12 +4894,27 @@
       <c r="H92" t="s">
         <v>221</v>
       </c>
-      <c r="J92" t="str">
+      <c r="J92" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('CONSERVA DE ELVAS', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>120</v>
       </c>
@@ -3476,10 +4930,1051 @@
       <c r="H93" t="s">
         <v>221</v>
       </c>
-      <c r="J93" t="str">
+      <c r="J93" s="10" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO Planta(variedade, nomeComum, idCalendarioOperacao, especie) VALUES ('Galega ', 'Oliveira', 1, 'Olea europaea');</v>
       </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="str">
+        <f xml:space="preserve"> "INSERT INTO " &amp;$C$97&amp; "(sementeira, poda, colheita, floracao) VALUES (" &amp;IF(ISBLANK(E2), "null", "'" &amp;E2&amp; "'")&amp; ", "  &amp;IF(ISBLANK(F2), "null", "'" &amp;F2&amp; "'")&amp; ", " &amp;IF(ISBLANK(H2), "null", "'" &amp;H2&amp;  "'")&amp; ", " &amp;IF(ISBLANK(G2), "null", "'" &amp;G2&amp; "'")&amp; "); "</f>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="str">
+        <f t="shared" ref="A99:A162" si="2" xml:space="preserve"> "INSERT INTO " &amp;$C$97&amp; "(sementeira, poda, colheita, floracao) VALUES (" &amp;IF(ISBLANK(E3), "null", "'" &amp;E3&amp; "'")&amp; ", "  &amp;IF(ISBLANK(F3), "null", "'" &amp;F3&amp; "'")&amp; ", " &amp;IF(ISBLANK(H3), "null", "'" &amp;H3&amp;  "'")&amp; ", " &amp;IF(ISBLANK(G3), "null", "'" &amp;G3&amp; "'")&amp; "); "</f>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Julho a agosto', 'Fevereiro a março'); </v>
+      </c>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Janeiro', 'Novembro a dezembro', 'Abril a maio'); </v>
+      </c>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="str">
+        <f t="shared" ref="A163:A189" si="3" xml:space="preserve"> "INSERT INTO " &amp;$C$97&amp; "(sementeira, poda, colheita, floracao) VALUES (" &amp;IF(ISBLANK(E67), "null", "'" &amp;E67&amp; "'")&amp; ", "  &amp;IF(ISBLANK(F67), "null", "'" &amp;F67&amp; "'")&amp; ", " &amp;IF(ISBLANK(H67), "null", "'" &amp;H67&amp;  "'")&amp; ", " &amp;IF(ISBLANK(G67), "null", "'" &amp;G67&amp; "'")&amp; "); "</f>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, 'Novembro a dezembro', 'Agosto a setembro', 'Março a abril'); </v>
+      </c>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, null, null); </v>
+      </c>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, null, null); </v>
+      </c>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, null, null); </v>
+      </c>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, null, null); </v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, '80 dias', null); </v>
+      </c>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, null, null); </v>
+      </c>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, null, null); </v>
+      </c>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES ('Abril a junho', null, 'Julho a setembro', null); </v>
+      </c>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES ('Abril a junho', null, 'Julho a setembro', null); </v>
+      </c>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES ('Março a setembro', null, 'Junho a fevereiro', null); </v>
+      </c>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="11" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INSERT INTO CalendarioOperacao(sementeira, poda, colheita, floracao) VALUES (null, null, 'Outubro a novembro', null); </v>
+      </c>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3490,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8BE3C6-089F-4A17-B7E6-182E6A73873F}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3510,7 +6005,7 @@
     <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -3552,7 +6047,7 @@
       </c>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -3575,7 +6070,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -3598,7 +6093,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3633,7 +6128,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -3662,7 +6157,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -3703,7 +6198,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -3732,7 +6227,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -3761,7 +6256,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -3796,171 +6291,343 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="str">
-        <f>"INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('" &amp;A2&amp; "', 1, 2, '" &amp;D2&amp; "', '" &amp;C2&amp; "', '" &amp;E2&amp; "');"</f>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('Calda Bordalesa ASCENZA', 1, 2, 'Fitofármaco', 'Pó molhável', 'Fungicida');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="str">
-        <f t="shared" ref="A13:A19" si="0">"INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('" &amp;A3&amp; "', 1, 2, '" &amp;D3&amp; "', '" &amp;C3&amp; "', '" &amp;E3&amp; "');"</f>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('Enxofre Bayer 80 WG', 1, 2, 'Fitofármaco', 'Pó molhável', 'Fungicida');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('Patentkali', 1, 2, 'Adubo', 'Granulado', 'Adubo solo');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('ESTA Kieserit', 1, 2, 'Adubo', 'Granulado', 'Adubo solo');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('EPSO Microtop', 1, 2, 'Adubo', 'Granulado', 'Adubo foliar+Fertirrega');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('EPSO Top', 1, 2, 'Adubo', 'Granulado', 'Adubo foliar');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('Biocal CaCo3', 1, 2, 'Corretor', 'Granulado', 'Correção solo');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaerial, metodoAplicacao) VALUES ('Biocal Composto', 1, 2, 'Corretor', 'Pó', 'Correção solo');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f>"INSERT INTO  FatorProducao ("&amp;$A$1&amp;", "&amp;$B$1&amp;", "&amp;$C$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$F$1&amp;", "&amp;$G$1&amp;", "&amp;$H$1&amp;", "&amp;$I$1&amp;", "&amp;$J$1&amp;", "&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;") VALUES ('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"', "&amp;TEXT(G2,"0.00%")&amp;", "&amp;IF(ISBLANK(H2),"NULL",H2)&amp;", "&amp;IF(ISBLANK(I2),"NULL",TEXT(I2,"0,00%"))&amp;", "&amp;IF(ISBLANK(J2),"NULL",J2)&amp;", "&amp;IF(ISBLANK(K2),"NULL",TEXT(K2,"0,00%"))&amp;", "&amp;IF(ISBLANK(L2),"NULL",L2)&amp;", "&amp;IF(ISBLANK(M2),"NULL",TEXT(M2,"0,00%"))&amp; ")"</f>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('Calda Bordalesa ASCENZA', 'ASCENZA', 'Pó molhável', 'Fitofármaco', 'Fungicida', 'CU', 0.20%, NULL, NULL, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f t="shared" ref="A34:A40" si="1">"INSERT INTO  FatorProducao ("&amp;$A$1&amp;", "&amp;$B$1&amp;", "&amp;$C$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$F$1&amp;", "&amp;$G$1&amp;", "&amp;$H$1&amp;", "&amp;$I$1&amp;", "&amp;$J$1&amp;", "&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;") VALUES ('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"', '"&amp;F3&amp;"', "&amp;TEXT(G3,"0,00%")&amp;", "&amp;IF(ISBLANK(H3),"NULL",H3)&amp;", "&amp;IF(ISBLANK(I3),"NULL",TEXT(I3,"0,00%"))&amp;", "&amp;IF(ISBLANK(J3),"NULL",J3)&amp;", "&amp;IF(ISBLANK(K3),"NULL",TEXT(K3,"0,00%"))&amp;", "&amp;IF(ISBLANK(L3),"NULL",L3)&amp;", "&amp;IF(ISBLANK(M3),"NULL",TEXT(M3,"0,00%"))&amp; ")"</f>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('Enxofre Bayer 80 WG', 'Bayer', 'Pó molhável', 'Fitofármaco', 'Fungicida', 'S', 80,00%, NULL, NULL, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('Patentkali', 'K+S', 'Granulado', 'Adubo', 'Adubo solo', 'K', 24,90%, Mg, 6,00%, S, 17,60%, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('ESTA Kieserit', 'K+S', 'Granulado', 'Adubo', 'Adubo solo', 'Mg', 15,10%, S, 20,80%, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('EPSO Microtop', 'K+S', 'Granulado', 'Adubo', 'Adubo foliar+Fertirrega', 'Mg', 9,00%, S, 12,40%, B, 0,90%, Mn, 1,00%)</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('EPSO Top', 'K+S', 'Granulado', 'Adubo', 'Adubo foliar', 'Mg', 9,60%, S, 13,00%, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('Biocal CaCo3', 'Biocal', 'Granulado', 'Corretor', 'Correção solo', 'CaCO3', 88,20%, MgCO3, 1,90%, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO  FatorProducao (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES ('Biocal Composto', 'Biocal', 'Pó', 'Corretor', 'Correção solo', 'CaCO3', 71,70%, MgCO3, 14,80%, MgO, 7,90%, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="str">
-        <f t="shared" ref="A44:A51" si="2">"INSERT INTO "&amp;$Q$1&amp;" ("&amp;$A$1&amp;", "&amp;$B$1&amp;", "&amp;$C$1&amp;", "&amp;$D$1&amp;", "&amp;$E$1&amp;", "&amp;$F$1&amp;", "&amp;$G$1&amp;", "&amp;$H$1&amp;", "&amp;$I$1&amp;", "&amp;$J$1&amp;", "&amp;$K$1&amp;", "&amp;$L$1&amp;", "&amp;$M$1&amp;") VALUES ("&amp;A2&amp;", "&amp;B2&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;", "&amp;F2&amp;", "&amp;(G2*100)&amp;", "&amp;IF(ISBLANK(H2),"NULL",H2)&amp;", "&amp;IF(ISBLANK(I2),"NULL",(I2*100))&amp;", "&amp;IF(ISBLANK(J2),"NULL",J2)&amp;", "&amp;IF(ISBLANK(K2),"NULL",(K2*100))&amp;", "&amp;IF(ISBLANK(L2),"NULL",L2)&amp;", "&amp;IF(ISBLANK(M2),"NULL",(M2*100))&amp;")"</f>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (Calda Bordalesa ASCENZA, ASCENZA, Pó molhável, Fitofármaco, Fungicida, CU, 20, NULL, NULL, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (Enxofre Bayer 80 WG, Bayer, Pó molhável, Fitofármaco, Fungicida, S, 80, NULL, NULL, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (Patentkali, K+S, Granulado, Adubo, Adubo solo, K, 24,9, Mg, 6, S, 17,6, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (ESTA Kieserit, K+S, Granulado, Adubo, Adubo solo, Mg, 15,1, S, 20,8, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (EPSO Microtop, K+S, Granulado, Adubo, Adubo foliar+Fertirrega, Mg, 9, S, 12,4, B, 0,9, Mn, 1)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (EPSO Top, K+S, Granulado, Adubo, Adubo foliar, Mg, 9,6, S, 13, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (Biocal CaCo3, Biocal, Granulado, Corretor, Correção solo, CaCO3, 88,2, MgCO3, 1,9, NULL, NULL, NULL, NULL)</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO  (Designação, Fabricante, Formato, Tipo, Aplicação, C1, Perc., C2, Perc., C3, Perc., C4, Perc.) VALUES (Biocal Composto, Biocal, Pó, Corretor, Correção solo, CaCO3, 71,7, MgCO3, 14,8, MgO, 7,9, NULL, NULL)</v>
-      </c>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="str">
+        <f>"INSERT INTO " &amp;$C$12&amp; " (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('" &amp;A2&amp; "', 1, 2, '" &amp;D2&amp; "', '" &amp;C2&amp; "', '" &amp;E2&amp; "');"</f>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('Calda Bordalesa ASCENZA', 1, 2, 'Fitofármaco', 'Pó molhável', 'Fungicida');</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="str">
+        <f t="shared" ref="A14:A20" si="0">"INSERT INTO " &amp;$C$12&amp; " (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('" &amp;A3&amp; "', 1, 2, '" &amp;D3&amp; "', '" &amp;C3&amp; "', '" &amp;E3&amp; "');"</f>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('Enxofre Bayer 80 WG', 1, 2, 'Fitofármaco', 'Pó molhável', 'Fungicida');</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('Patentkali', 1, 2, 'Adubo', 'Granulado', 'Adubo solo');</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('ESTA Kieserit', 1, 2, 'Adubo', 'Granulado', 'Adubo solo');</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('EPSO Microtop', 1, 2, 'Adubo', 'Granulado', 'Adubo foliar+Fertirrega');</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('EPSO Top', 1, 2, 'Adubo', 'Granulado', 'Adubo foliar');</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('Biocal CaCo3', 1, 2, 'Corretor', 'Granulado', 'Correção solo');</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO FatorProducao (nomeComercial, idFichaTecnica, idStock, classificacao, estudoMaterial, metodoAplicacao) VALUES ('Biocal Composto', 1, 2, 'Corretor', 'Pó', 'Correção solo');</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;F2&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('CU');</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;F3&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('S');</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;F4&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('K');</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;F5&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('Mg');</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;F8&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('CaCO3');</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;H8&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('MgCO3');</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;J6&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('B');</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;J9&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('MgO');</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="str">
+        <f>"INSERT INTO "&amp;$C$24&amp;"(formulaQuimica) VALUES ('" &amp;L6&amp; "');"</f>
+        <v>INSERT INTO ComponenteQuimico(formulaQuimica) VALUES ('Mn');</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B01B56-4BBE-4836-8DCB-B3AF8DABE0BB}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3969,7 +6636,7 @@
     <col min="3" max="3" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3985,17 +6652,29 @@
       <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -4011,12 +6690,26 @@
       <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="str">
-        <f>"INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES ("&amp;A8&amp;", 1, '"&amp;C8&amp;"', " &amp;IF(ISBLANK(D8), "null", D8)&amp; ");"</f>
-        <v>INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES (201, 1, 'Espigueiro', 600);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H2" s="16" t="str">
+        <f>"INSERT INTO " &amp;$J$1&amp; "(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES ("&amp;A8&amp;", '" &amp;B8&amp; "', "&amp;IF(ISBLANK(E8), "null", "'" &amp;E8&amp; "'")&amp;", '"&amp;C8&amp;"', " &amp;IF(ISBLANK(D8), "null", D8)&amp; ");"</f>
+        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES (201, 'Armazém', 'm2', 'Espigueiro', 600);</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -4032,12 +6725,26 @@
       <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H6" si="0">"INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES ("&amp;A9&amp;", 1, '"&amp;C9&amp;"', " &amp;IF(ISBLANK(D9), "null", D9)&amp; ");"</f>
-        <v>INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES (202, 1, 'Armazém novo', 800);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="16" t="str">
+        <f t="shared" ref="H3:H6" si="0">"INSERT INTO " &amp;$J$1&amp; "(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES ("&amp;A9&amp;", '" &amp;B9&amp; "', "&amp;IF(ISBLANK(E9), "null", "'" &amp;E9&amp; "'")&amp;", '"&amp;C9&amp;"', " &amp;IF(ISBLANK(D9), "null", D9)&amp; ");"</f>
+        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES (202, 'Armazém', 'm2', 'Armazém novo', 800);</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -4053,12 +6760,26 @@
       <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES (203, 1, 'Armazém grande', 900);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES (203, 'Garagem', 'm2', 'Armazém grande', 900);</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -4074,12 +6795,26 @@
       <c r="E5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES (250, 1, 'Moinho', null);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES (250, 'Moinho', null, 'Moinho', null);</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -4095,12 +6830,26 @@
       <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO Edificio(idEdificio, idTipoEdificio, designacao, area) VALUES (301, 1, 'Tanque do campo grande', 15);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacaoUnidade, nomeEdificio, area) VALUES (301, 'Rega', 'm3', 'Tanque do campo grande', 15);</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -4117,7 +6866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>201</v>
       </c>
@@ -4134,7 +6883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>202</v>
       </c>
@@ -4151,7 +6900,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>203</v>
       </c>
@@ -4168,7 +6917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>250</v>
       </c>
@@ -4179,7 +6928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>301</v>
       </c>
@@ -4196,35 +6945,63 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H13" t="str">
-        <f>"INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES ("&amp;A8&amp;", '" &amp;B8&amp; "', '"&amp;C8&amp;"', " &amp;IF(ISBLANK(D8), "null", D8)&amp; ");"</f>
-        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES (201, 'Armazém', 'Espigueiro', 600);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H14" t="str">
-        <f t="shared" ref="H14:H17" si="1">"INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES ("&amp;A9&amp;", '" &amp;B9&amp; "', '"&amp;C9&amp;"', " &amp;IF(ISBLANK(D9), "null", D9)&amp; ");"</f>
-        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES (202, 'Armazém', 'Armazém novo', 800);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES (203, 'Garagem', 'Armazém grande', 900);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES (250, 'Moinho', 'Moinho', null);</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO Edificio(idEdificio, designacaoTipoEdificio, designacao, area) VALUES (301, 'Rega', 'Tanque do campo grande', 15);</v>
-      </c>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="str">
+        <f>"INSERT INTO " &amp;$C$17&amp; "(designacaoTipoEdificio) VALUES ('"&amp;B9&amp;"');"</f>
+        <v>INSERT INTO TipoEdificio(designacaoTipoEdificio) VALUES ('Armazém');</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="str">
+        <f>"INSERT INTO " &amp;$C$17&amp; "(designacaoTipoEdificio) VALUES ('"&amp;B10&amp;"');"</f>
+        <v>INSERT INTO TipoEdificio(designacaoTipoEdificio) VALUES ('Garagem');</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="str">
+        <f>"INSERT INTO " &amp;$C$17&amp; "(designacaoTipoEdificio) VALUES ('"&amp;B11&amp;"');"</f>
+        <v>INSERT INTO TipoEdificio(designacaoTipoEdificio) VALUES ('Moinho');</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="str">
+        <f>"INSERT INTO " &amp;$C$17&amp; "(designacaoTipoEdificio) VALUES ('"&amp;B12&amp;"');"</f>
+        <v>INSERT INTO TipoEdificio(designacaoTipoEdificio) VALUES ('Rega');</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4278,7 +7055,7 @@
         <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L1" t="s">
         <v>54</v>
@@ -4616,10 +7393,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8273E431-88A0-4D26-AA21-9E0D94FE2923}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5352,7 +8129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>104</v>
       </c>
@@ -5375,7 +8152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>104</v>
       </c>
@@ -5398,7 +8175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>104</v>
       </c>
@@ -5421,7 +8198,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>104</v>
       </c>
@@ -5444,7 +8221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>104</v>
       </c>
@@ -5467,7 +8244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>104</v>
       </c>
@@ -5490,7 +8267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>104</v>
       </c>
@@ -5513,7 +8290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>104</v>
       </c>
@@ -5535,6 +8312,729 @@
       <c r="H40" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="str">
+        <f xml:space="preserve"> "INSERT INTO " &amp;$C$43&amp; " (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (" &amp;A2&amp; ", 2, '" &amp;C2&amp; "', " &amp;IF(ISBLANK(H2), "null", "'" &amp;H2&amp; "'" )&amp; ", " &amp;IF(ISBLANK(G2), "null", G2)&amp; ",  TO_DATE('"&amp;TEXT(F2,"DD/MM/AAAA")&amp;"', 'DD/MM/YYYY');"</f>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (102, 2, 'Plantação', 'un', 30,  TO_DATE('06/10/2016', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="str">
+        <f t="shared" ref="A45:A82" si="0" xml:space="preserve"> "INSERT INTO " &amp;$C$43&amp; " (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (" &amp;A3&amp; ", 2, '" &amp;C3&amp; "', " &amp;IF(ISBLANK(H3), "null", "'" &amp;H3&amp; "'" )&amp; ", " &amp;IF(ISBLANK(G3), "null", G3)&amp; ",  TO_DATE('"&amp;TEXT(F3,"DD/MM/AAAA")&amp;"', 'DD/MM/YYYY');"</f>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (102, 2, 'Plantação', 'un', 20,  TO_DATE('10/10/2016', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Plantação', 'un', 90,  TO_DATE('07/01/2017', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Plantação', 'un', 60,  TO_DATE('08/01/2017', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Plantação', 'un', 40,  TO_DATE('08/01/2017', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Plantação', 'un', 30,  TO_DATE('10/12/2018', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Sementeira', null, null,  TO_DATE('10/10/2020', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 70,  TO_DATE('05/12/2020', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 50,  TO_DATE('05/12/2020', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 40,  TO_DATE('15/12/2020', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 60,  TO_DATE('15/12/2020', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Incorporação no solo', null, null,  TO_DATE('30/03/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Sementeira', null, null,  TO_DATE('15/04/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Fertilização', 'kg', 10,  TO_DATE('02/05/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Rega', 'm3', 5,  TO_DATE('05/07/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Colheita', 'kg', 3300,  TO_DATE('21/08/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 900,  TO_DATE('24/08/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 800,  TO_DATE('05/09/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 800,  TO_DATE('12/09/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 1200,  TO_DATE('23/09/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Sementeira', null, null,  TO_DATE('03/10/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 950,  TO_DATE('12/10/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 750,  TO_DATE('03/11/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 70,  TO_DATE('28/11/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 90,  TO_DATE('03/12/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 60,  TO_DATE('18/12/2021', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Incorporação no solo', null, null,  TO_DATE('05/04/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Sementeira', null, null,  TO_DATE('10/04/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Fertilização', 'kg', 10,  TO_DATE('13/05/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (101, 2, 'Colheita', 'kg', 3500,  TO_DATE('12/08/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 950,  TO_DATE('20/08/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 830,  TO_DATE('07/09/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 750,  TO_DATE('11/09/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 1150,  TO_DATE('20/09/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 850,  TO_DATE('17/10/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Colheita', 'kg', 900,  TO_DATE('06/11/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 70,  TO_DATE('04/12/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 90,  TO_DATE('07/12/2022', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO OperacaoAgricola (idParcela, idCultura, designacaoOperacaoAgricola, designacaoUnidade, quantidade, data) VALUES (104, 2, 'Poda', 'un', 60,  TO_DATE('12/01/2023', 'DD/MM/YYYY');</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I40">
@@ -5542,6 +9042,7 @@
     <sortCondition ref="A2:A40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5549,7 +9050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91246EAC-8509-4EA8-A5C2-D478BF9B23C9}">
   <dimension ref="B2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5560,7 +9061,7 @@
         <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
@@ -5631,10 +9132,10 @@
         <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -5727,6 +9228,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001FE1D12FE0EBDA4CB61620080A85CBAE" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="29a33cb73e06d038149e1c9d44f381e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9101efd-7fb7-4b65-82fa-5268cef970aa" xmlns:ns4="8baafd8b-20f3-4709-bc83-186ae70c422f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="959936be2cfdc50d0a8ac64b81b8b25a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9101efd-7fb7-4b65-82fa-5268cef970aa"/>
@@ -5909,15 +9419,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA37870F-1997-46E6-ABF3-D972D5619E05}">
   <ds:schemaRefs>
@@ -5936,6 +9437,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{123E14B8-9922-4582-B143-574A2CB640AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5952,12 +9461,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8E74F1-259B-4A8D-986B-B2E55FA52FD9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>